--- a/Retport Card Template.xlsx
+++ b/Retport Card Template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="8495"/>
+    <workbookView windowWidth="20976" windowHeight="8495"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -222,10 +222,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -287,7 +287,143 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -299,142 +435,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -461,13 +461,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -479,31 +575,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,7 +599,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,97 +629,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,18 +642,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1082,6 +1082,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1136,30 +1160,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1186,152 +1186,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="36" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="38" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1419,7 +1419,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1707,7 +1710,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="J1" sqref="J1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4259259259259" defaultRowHeight="15.75" customHeight="1"/>
@@ -1721,7 +1724,7 @@
     <col min="12" max="12" width="11.5740740740741" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1" spans="1:10">
+    <row r="1" ht="18.75" customHeight="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1736,6 +1739,8 @@
       <c r="J1" s="46" t="s">
         <v>3</v>
       </c>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
     </row>
     <row r="2" ht="13.5" customHeight="1" spans="1:12">
       <c r="A2" s="5" t="s">
@@ -1754,11 +1759,11 @@
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="9"/>
-      <c r="I2" s="47" t="s">
+      <c r="I2" s="48" t="s">
         <v>8</v>
       </c>
       <c r="J2" s="9"/>
-      <c r="K2" s="48" t="s">
+      <c r="K2" s="49" t="s">
         <v>9</v>
       </c>
       <c r="L2" s="8"/>
@@ -1782,7 +1787,7 @@
         <v>13</v>
       </c>
       <c r="J3" s="15"/>
-      <c r="K3" s="49" t="s">
+      <c r="K3" s="50" t="s">
         <v>14</v>
       </c>
       <c r="L3" s="14"/>
@@ -1806,7 +1811,7 @@
         <v>18</v>
       </c>
       <c r="J4" s="15"/>
-      <c r="K4" s="50"/>
+      <c r="K4" s="51"/>
       <c r="L4" s="14"/>
     </row>
     <row r="5" ht="13.5" customHeight="1" spans="1:12">
@@ -1828,10 +1833,10 @@
         <v>22</v>
       </c>
       <c r="J5" s="22"/>
-      <c r="K5" s="51"/>
+      <c r="K5" s="52"/>
       <c r="L5" s="21"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" ht="13.2" spans="1:12">
       <c r="A6" s="24" t="s">
         <v>23</v>
       </c>
@@ -1863,11 +1868,11 @@
       <c r="K6" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="L6" s="52" t="s">
+      <c r="L6" s="53" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" ht="13.2" spans="1:12">
       <c r="A7" s="28"/>
       <c r="B7" s="29"/>
       <c r="C7" s="30"/>
@@ -1879,9 +1884,9 @@
       <c r="I7" s="30"/>
       <c r="J7" s="30"/>
       <c r="K7" s="30"/>
-      <c r="L7" s="53"/>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="L7" s="54"/>
+    </row>
+    <row r="8" ht="13.2" spans="1:12">
       <c r="A8" s="31"/>
       <c r="B8" s="32"/>
       <c r="C8" s="33"/>
@@ -1893,9 +1898,9 @@
       <c r="I8" s="33"/>
       <c r="J8" s="33"/>
       <c r="K8" s="33"/>
-      <c r="L8" s="54"/>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="L8" s="55"/>
+    </row>
+    <row r="9" ht="13.2" spans="1:12">
       <c r="A9" s="28"/>
       <c r="B9" s="29"/>
       <c r="C9" s="30"/>
@@ -1907,9 +1912,9 @@
       <c r="I9" s="30"/>
       <c r="J9" s="30"/>
       <c r="K9" s="30"/>
-      <c r="L9" s="53"/>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="L9" s="54"/>
+    </row>
+    <row r="10" ht="13.2" spans="1:12">
       <c r="A10" s="34"/>
       <c r="B10" s="32"/>
       <c r="C10" s="33"/>
@@ -1921,9 +1926,9 @@
       <c r="I10" s="33"/>
       <c r="J10" s="33"/>
       <c r="K10" s="33"/>
-      <c r="L10" s="54"/>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="L10" s="55"/>
+    </row>
+    <row r="11" ht="13.2" spans="1:12">
       <c r="A11" s="35"/>
       <c r="B11" s="29"/>
       <c r="C11" s="30"/>
@@ -1935,9 +1940,9 @@
       <c r="I11" s="30"/>
       <c r="J11" s="30"/>
       <c r="K11" s="30"/>
-      <c r="L11" s="53"/>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="L11" s="54"/>
+    </row>
+    <row r="12" ht="13.2" spans="1:12">
       <c r="A12" s="34"/>
       <c r="B12" s="32"/>
       <c r="C12" s="33"/>
@@ -1949,9 +1954,9 @@
       <c r="I12" s="33"/>
       <c r="J12" s="33"/>
       <c r="K12" s="33"/>
-      <c r="L12" s="54"/>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="L12" s="55"/>
+    </row>
+    <row r="13" ht="13.2" spans="1:12">
       <c r="A13" s="35"/>
       <c r="B13" s="29"/>
       <c r="C13" s="30"/>
@@ -1963,9 +1968,9 @@
       <c r="I13" s="30"/>
       <c r="J13" s="30"/>
       <c r="K13" s="30"/>
-      <c r="L13" s="53"/>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="L13" s="54"/>
+    </row>
+    <row r="14" ht="13.2" spans="1:12">
       <c r="A14" s="36"/>
       <c r="B14" s="32"/>
       <c r="C14" s="37"/>
@@ -1977,9 +1982,9 @@
       <c r="I14" s="37"/>
       <c r="J14" s="37"/>
       <c r="K14" s="37"/>
-      <c r="L14" s="55"/>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="L14" s="56"/>
+    </row>
+    <row r="15" ht="13.2" spans="1:12">
       <c r="A15" s="35"/>
       <c r="B15" s="29"/>
       <c r="C15" s="30"/>
@@ -1991,9 +1996,9 @@
       <c r="I15" s="30"/>
       <c r="J15" s="30"/>
       <c r="K15" s="30"/>
-      <c r="L15" s="53"/>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="L15" s="54"/>
+    </row>
+    <row r="16" ht="13.2" spans="1:12">
       <c r="A16" s="38"/>
       <c r="B16" s="39"/>
       <c r="C16" s="40"/>
@@ -2005,9 +2010,9 @@
       <c r="I16" s="40"/>
       <c r="J16" s="40"/>
       <c r="K16" s="40"/>
-      <c r="L16" s="56"/>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="L16" s="57"/>
+    </row>
+    <row r="17" ht="13.2" spans="1:12">
       <c r="A17" s="41"/>
       <c r="B17" s="41"/>
       <c r="C17" s="41"/>
